--- a/Production/Resources/pew_govt.xlsx
+++ b/Production/Resources/pew_govt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ardonaghspecialty-my.sharepoint.com/personal/mike_raminski_ardonaghspecialty_onmicrosoft_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Thins\School\UTAustin Bootcamp\UTA_Project-4\Production\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33690475-8A25-4F09-8755-8A4AF74E5F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD9B762-FADD-4083-8FC3-9CD2FF86EE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5D270541-0BBC-4F77-AE21-830A5A33DEE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D270541-0BBC-4F77-AE21-830A5A33DEE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>Individual polls</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>ABC/POST</t>
+  </si>
+  <si>
+    <t>Source</t>
   </si>
 </sst>
 </file>
@@ -472,22 +472,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88C1970-8A62-42ED-8560-E7579DF4AFD9}">
   <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="B5:C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.2">
+    <row r="1" spans="1:4" ht="45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -495,7 +497,7 @@
         <v>44682</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3">
         <v>20</v>
@@ -509,7 +511,7 @@
         <v>44297</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5">
         <v>24</v>
@@ -523,7 +525,7 @@
         <v>44045</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5">
         <v>20</v>
@@ -537,7 +539,7 @@
         <v>43933</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5">
         <v>27</v>
@@ -551,7 +553,7 @@
         <v>43549</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5">
         <v>17</v>
@@ -565,7 +567,7 @@
         <v>43073</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5">
         <v>18</v>
@@ -579,7 +581,7 @@
         <v>42836</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="5">
         <v>20</v>
@@ -593,7 +595,7 @@
         <v>42281</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="5">
         <v>19</v>
@@ -607,7 +609,7 @@
         <v>41840</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="5">
         <v>14</v>
@@ -621,7 +623,7 @@
         <v>41696</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="5">
         <v>24</v>
@@ -630,12 +632,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="27.6">
+    <row r="12" spans="1:4" ht="28.5">
       <c r="A12" s="4">
         <v>41593</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="5">
         <v>17</v>
@@ -649,7 +651,7 @@
         <v>41560</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="5">
         <v>19</v>
@@ -658,12 +660,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="27.6">
+    <row r="14" spans="1:4" ht="28.5">
       <c r="A14" s="4">
         <v>41425</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="5">
         <v>20</v>
@@ -672,12 +674,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="27.6">
+    <row r="15" spans="1:4" ht="28.5">
       <c r="A15" s="4">
         <v>41311</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="5">
         <v>20</v>
@@ -691,7 +693,7 @@
         <v>41287</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="5">
         <v>26</v>
@@ -705,7 +707,7 @@
         <v>41213</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="5">
         <v>22</v>
@@ -714,12 +716,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="27.6">
+    <row r="18" spans="1:4" ht="28.5">
       <c r="A18" s="4">
         <v>40835</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="5">
         <v>10</v>
@@ -733,7 +735,7 @@
         <v>40820</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="5">
         <v>20</v>
@@ -747,7 +749,7 @@
         <v>40809</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="5">
         <v>15</v>
@@ -761,7 +763,7 @@
         <v>40776</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="5">
         <v>19</v>
@@ -775,7 +777,7 @@
         <v>40602</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="5">
         <v>29</v>
@@ -784,12 +786,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="27.6">
+    <row r="23" spans="1:4" ht="28.5">
       <c r="A23" s="4">
         <v>40472</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="5">
         <v>22</v>
@@ -798,12 +800,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="27.6">
+    <row r="24" spans="1:4" ht="28.5">
       <c r="A24" s="4">
         <v>40452</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="5">
         <v>18</v>
@@ -817,7 +819,7 @@
         <v>40427</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="5">
         <v>24</v>
@@ -831,7 +833,7 @@
         <v>40422</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="5">
         <v>25</v>
@@ -840,12 +842,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="27.6">
+    <row r="27" spans="1:4" ht="28.5">
       <c r="A27" s="4">
         <v>40273</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="5">
         <v>20</v>
@@ -859,7 +861,7 @@
         <v>40273</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="5">
         <v>25</v>
@@ -873,7 +875,7 @@
         <v>40258</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" s="5">
         <v>22</v>
@@ -887,7 +889,7 @@
         <v>40221</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="5">
         <v>26</v>
@@ -896,12 +898,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="27.6">
+    <row r="31" spans="1:4" ht="28.5">
       <c r="A31" s="4">
         <v>40214</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" s="5">
         <v>19</v>
@@ -915,7 +917,7 @@
         <v>40188</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" s="5">
         <v>19</v>
@@ -929,7 +931,7 @@
         <v>40167</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="5">
         <v>20</v>
@@ -938,12 +940,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="27.6">
+    <row r="34" spans="1:4" ht="28.5">
       <c r="A34" s="4">
         <v>40056</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="5">
         <v>24</v>
@@ -952,12 +954,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="27.6">
+    <row r="35" spans="1:4" ht="28.5">
       <c r="A35" s="4">
         <v>39976</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" s="5">
         <v>20</v>
@@ -971,7 +973,7 @@
         <v>39803</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" s="5">
         <v>26</v>
@@ -985,7 +987,7 @@
         <v>39736</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" s="5">
         <v>31</v>
@@ -994,12 +996,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="27.6">
+    <row r="38" spans="1:4" ht="28.5">
       <c r="A38" s="4">
         <v>39734</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" s="5">
         <v>17</v>
@@ -1008,12 +1010,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="27.6">
+    <row r="39" spans="1:4" ht="28.5">
       <c r="A39" s="4">
         <v>39272</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" s="5">
         <v>24</v>
@@ -1027,7 +1029,7 @@
         <v>39091</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="5">
         <v>31</v>
@@ -1036,12 +1038,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="27.6">
+    <row r="41" spans="1:4" ht="28.5">
       <c r="A41" s="4">
         <v>38998</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" s="5">
         <v>29</v>
@@ -1050,12 +1052,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="27.6">
+    <row r="42" spans="1:4" ht="28.5">
       <c r="A42" s="4">
         <v>38975</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" s="5">
         <v>28</v>
@@ -1069,7 +1071,7 @@
         <v>38753</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" s="5">
         <v>34</v>
@@ -1078,12 +1080,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="27.6">
+    <row r="44" spans="1:4" ht="28.5">
       <c r="A44" s="4">
         <v>38737</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" s="5">
         <v>32</v>
@@ -1097,7 +1099,7 @@
         <v>38723</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" s="5">
         <v>32</v>
@@ -1106,12 +1108,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="27.6">
+    <row r="46" spans="1:4" ht="28.5">
       <c r="A46" s="4">
         <v>38688</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" s="5">
         <v>32</v>
@@ -1125,7 +1127,7 @@
         <v>38606</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47" s="5">
         <v>31</v>
@@ -1134,12 +1136,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="27.6">
+    <row r="48" spans="1:4" ht="28.5">
       <c r="A48" s="4">
         <v>38604</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" s="5">
         <v>29</v>
@@ -1153,7 +1155,7 @@
         <v>38522</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" s="5">
         <v>30</v>
@@ -1167,7 +1169,7 @@
         <v>38275</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" s="5">
         <v>46</v>
@@ -1176,12 +1178,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="27.6">
+    <row r="51" spans="1:4" ht="28.5">
       <c r="A51" s="4">
         <v>38183</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" s="5">
         <v>40</v>
@@ -1195,7 +1197,7 @@
         <v>38067</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52" s="5">
         <v>36</v>
@@ -1209,7 +1211,7 @@
         <v>37920</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" s="5">
         <v>37</v>
@@ -1218,12 +1220,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="27.6">
+    <row r="54" spans="1:4" ht="28.5">
       <c r="A54" s="4">
         <v>37829</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" s="5">
         <v>36</v>
@@ -1237,7 +1239,7 @@
         <v>37544</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" s="5">
         <v>55</v>
@@ -1251,7 +1253,7 @@
         <v>37503</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" s="5">
         <v>46</v>
@@ -1260,12 +1262,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="27.6">
+    <row r="57" spans="1:4" ht="28.5">
       <c r="A57" s="4">
         <v>37501</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" s="5">
         <v>38</v>
@@ -1274,12 +1276,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="27.6">
+    <row r="58" spans="1:4" ht="28.5">
       <c r="A58" s="4">
         <v>37450</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" s="5">
         <v>38</v>
@@ -1293,7 +1295,7 @@
         <v>37424</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" s="5">
         <v>44</v>
@@ -1302,12 +1304,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="27.6">
+    <row r="60" spans="1:4" ht="28.5">
       <c r="A60" s="4">
         <v>37280</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" s="5">
         <v>46</v>
@@ -1316,12 +1318,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="27.6">
+    <row r="61" spans="1:4" ht="28.5">
       <c r="A61" s="4">
         <v>37232</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" s="5">
         <v>48</v>
@@ -1330,12 +1332,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="27.6">
+    <row r="62" spans="1:4" ht="28.5">
       <c r="A62" s="4">
         <v>37189</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" s="5">
         <v>55</v>
@@ -1349,7 +1351,7 @@
         <v>37170</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" s="5">
         <v>60</v>
@@ -1358,12 +1360,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="27.6">
+    <row r="64" spans="1:4" ht="28.5">
       <c r="A64" s="4">
         <v>36908</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" s="5">
         <v>31</v>
@@ -1372,12 +1374,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="27.6">
+    <row r="65" spans="1:4" ht="28.5">
       <c r="A65" s="4">
         <v>36830</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" s="5">
         <v>40</v>
@@ -1391,7 +1393,7 @@
         <v>36814</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" s="5">
         <v>44</v>
@@ -1405,7 +1407,7 @@
         <v>36716</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67" s="5">
         <v>42</v>
@@ -1414,12 +1416,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="27.6">
+    <row r="68" spans="1:4" ht="28.5">
       <c r="A68" s="4">
         <v>36618</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C68" s="5">
         <v>31</v>
@@ -1433,7 +1435,7 @@
         <v>36570</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69" s="5">
         <v>40</v>
@@ -1442,12 +1444,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="27.6">
+    <row r="70" spans="1:4" ht="28.5">
       <c r="A70" s="4">
         <v>36436</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" s="5">
         <v>30</v>
@@ -1456,12 +1458,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="27.6">
+    <row r="71" spans="1:4" ht="28.5">
       <c r="A71" s="4">
         <v>36417</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" s="5">
         <v>38</v>
@@ -1475,7 +1477,7 @@
         <v>36296</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72" s="5">
         <v>31</v>
@@ -1489,7 +1491,7 @@
         <v>36212</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C73" s="5">
         <v>31</v>
@@ -1498,12 +1500,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="27.6">
+    <row r="74" spans="1:4" ht="28.5">
       <c r="A74" s="4">
         <v>36203</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C74" s="5">
         <v>32</v>
@@ -1517,7 +1519,7 @@
         <v>36195</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" s="5">
         <v>33</v>
@@ -1526,12 +1528,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="27.6">
+    <row r="76" spans="1:4" ht="28.5">
       <c r="A76" s="4">
         <v>36170</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76" s="5">
         <v>37</v>
@@ -1540,12 +1542,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="27.6">
+    <row r="77" spans="1:4" ht="28.5">
       <c r="A77" s="4">
         <v>36163</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" s="5">
         <v>33</v>
@@ -1559,7 +1561,7 @@
         <v>36130</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78" s="5">
         <v>40</v>
@@ -1573,7 +1575,7 @@
         <v>36114</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C79" s="5">
         <v>26</v>
@@ -1582,12 +1584,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="27.6">
+    <row r="80" spans="1:4" ht="28.5">
       <c r="A80" s="4">
         <v>36100</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80" s="5">
         <v>24</v>
@@ -1596,12 +1598,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="27.6">
+    <row r="81" spans="1:4" ht="28.5">
       <c r="A81" s="4">
         <v>36094</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" s="5">
         <v>26</v>
@@ -1610,12 +1612,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="27.6">
+    <row r="82" spans="1:4" ht="28.5">
       <c r="A82" s="4">
         <v>36017</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C82" s="5">
         <v>34</v>
@@ -1629,7 +1631,7 @@
         <v>35848</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C83" s="5">
         <v>34</v>
@@ -1643,7 +1645,7 @@
         <v>35827</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" s="5">
         <v>39</v>
@@ -1652,12 +1654,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="27.6">
+    <row r="85" spans="1:4" ht="28.5">
       <c r="A85" s="4">
         <v>35820</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C85" s="5">
         <v>26</v>
@@ -1666,12 +1668,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="27.6">
+    <row r="86" spans="1:4" ht="28.5">
       <c r="A86" s="4">
         <v>35814</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C86" s="5">
         <v>31</v>
@@ -1685,7 +1687,7 @@
         <v>35734</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C87" s="5">
         <v>39</v>
@@ -1694,12 +1696,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="27.6">
+    <row r="88" spans="1:4" ht="28.5">
       <c r="A88" s="4">
         <v>35669</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C88" s="5">
         <v>22</v>
@@ -1713,7 +1715,7 @@
         <v>35582</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" s="5">
         <v>32</v>
@@ -1722,12 +1724,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="27.6">
+    <row r="90" spans="1:4" ht="28.5">
       <c r="A90" s="4">
         <v>35444</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" s="5">
         <v>23</v>
@@ -1736,12 +1738,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="27.6">
+    <row r="91" spans="1:4" ht="28.5">
       <c r="A91" s="4">
         <v>35371</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" s="5">
         <v>25</v>
@@ -1755,7 +1757,7 @@
         <v>35353</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92" s="5">
         <v>33</v>
@@ -1769,7 +1771,7 @@
         <v>35197</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" s="5">
         <v>27</v>
@@ -1778,12 +1780,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="27.6">
+    <row r="94" spans="1:4" ht="28.5">
       <c r="A94" s="4">
         <v>35191</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C94" s="5">
         <v>34</v>
@@ -1792,12 +1794,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="27.6">
+    <row r="95" spans="1:4" ht="28.5">
       <c r="A95" s="4">
         <v>35022</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C95" s="5">
         <v>25</v>
@@ -1811,7 +1813,7 @@
         <v>34918</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" s="5">
         <v>22</v>
@@ -1820,12 +1822,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="27.6">
+    <row r="97" spans="1:4" ht="28.5">
       <c r="A97" s="4">
         <v>34916</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" s="5">
         <v>20</v>
@@ -1834,12 +1836,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="27.6">
+    <row r="98" spans="1:4" ht="28.5">
       <c r="A98" s="4">
         <v>34777</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C98" s="5">
         <v>22</v>
@@ -1848,12 +1850,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="27.6">
+    <row r="99" spans="1:4" ht="28.5">
       <c r="A99" s="4">
         <v>34752</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" s="5">
         <v>18</v>
@@ -1867,7 +1869,7 @@
         <v>34669</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C100" s="5">
         <v>22</v>
@@ -1876,12 +1878,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="27.6">
+    <row r="101" spans="1:4" ht="28.5">
       <c r="A101" s="4">
         <v>34636</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" s="5">
         <v>22</v>
@@ -1890,12 +1892,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="27.6">
+    <row r="102" spans="1:4" ht="28.5">
       <c r="A102" s="4">
         <v>34630</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C102" s="5">
         <v>22</v>
@@ -1909,7 +1911,7 @@
         <v>34491</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" s="5">
         <v>17</v>
@@ -1923,7 +1925,7 @@
         <v>34364</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104" s="5">
         <v>19</v>
@@ -1932,12 +1934,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="27.6">
+    <row r="105" spans="1:4" ht="28.5">
       <c r="A105" s="4">
         <v>34354</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C105" s="5">
         <v>24</v>
@@ -1951,7 +1953,7 @@
         <v>34052</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106" s="5">
         <v>22</v>
@@ -1960,12 +1962,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="27.6">
+    <row r="107" spans="1:4" ht="28.5">
       <c r="A107" s="4">
         <v>33986</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C107" s="5">
         <v>28</v>
@@ -1974,12 +1976,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="27.6">
+    <row r="108" spans="1:4" ht="28.5">
       <c r="A108" s="4">
         <v>33983</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C108" s="5">
         <v>24</v>
@@ -1988,12 +1990,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="27.6">
+    <row r="109" spans="1:4" ht="28.5">
       <c r="A109" s="4">
         <v>33900</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C109" s="5">
         <v>22</v>
@@ -2007,7 +2009,7 @@
         <v>33892</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C110" s="5">
         <v>29</v>
@@ -2021,7 +2023,7 @@
         <v>33763</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111" s="5">
         <v>23</v>
@@ -2030,12 +2032,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="27.6">
+    <row r="112" spans="1:4" ht="28.5">
       <c r="A112" s="4">
         <v>33531</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C112" s="5">
         <v>35</v>
@@ -2044,12 +2046,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="27.6">
+    <row r="113" spans="1:4" ht="28.5">
       <c r="A113" s="4">
         <v>33303</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" s="5">
         <v>47</v>
@@ -2058,12 +2060,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="27.6">
+    <row r="114" spans="1:4" ht="28.5">
       <c r="A114" s="4">
         <v>33298</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C114" s="5">
         <v>45</v>
@@ -2072,12 +2074,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="27.6">
+    <row r="115" spans="1:4" ht="28.5">
       <c r="A115" s="4">
         <v>33265</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C115" s="5">
         <v>46</v>
@@ -2091,7 +2093,7 @@
         <v>33208</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C116" s="5">
         <v>28</v>
@@ -2100,12 +2102,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="27.6">
+    <row r="117" spans="1:4" ht="28.5">
       <c r="A117" s="4">
         <v>33174</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" s="5">
         <v>25</v>
@@ -2114,12 +2116,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="27.6">
+    <row r="118" spans="1:4" ht="28.5">
       <c r="A118" s="4">
         <v>33122</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C118" s="5">
         <v>42</v>
@@ -2128,12 +2130,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="27.6">
+    <row r="119" spans="1:4" ht="28.5">
       <c r="A119" s="4">
         <v>32889</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C119" s="5">
         <v>38</v>
@@ -2142,12 +2144,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="27.6">
+    <row r="120" spans="1:4" ht="28.5">
       <c r="A120" s="4">
         <v>32688</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" s="5">
         <v>35</v>
@@ -2156,12 +2158,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="27.6">
+    <row r="121" spans="1:4" ht="28.5">
       <c r="A121" s="4">
         <v>32523</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" s="5">
         <v>44</v>
@@ -2170,12 +2172,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="27.6">
+    <row r="122" spans="1:4" ht="28.5">
       <c r="A122" s="4">
         <v>32457</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C122" s="5">
         <v>44</v>
@@ -2189,7 +2191,7 @@
         <v>32431</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C123" s="5">
         <v>41</v>
@@ -2198,12 +2200,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="27.6">
+    <row r="124" spans="1:4" ht="28.5">
       <c r="A124" s="4">
         <v>32165</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C124" s="5">
         <v>39</v>
@@ -2212,12 +2214,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="27.6">
+    <row r="125" spans="1:4" ht="28.5">
       <c r="A125" s="4">
         <v>32068</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125" s="5">
         <v>41</v>
@@ -2226,12 +2228,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="27.6">
+    <row r="126" spans="1:4" ht="28.5">
       <c r="A126" s="4">
         <v>31929</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C126" s="5">
         <v>47</v>
@@ -2240,12 +2242,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="27.6">
+    <row r="127" spans="1:4" ht="28.5">
       <c r="A127" s="4">
         <v>31837</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C127" s="5">
         <v>42</v>
@@ -2254,12 +2256,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="27.6">
+    <row r="128" spans="1:4" ht="28.5">
       <c r="A128" s="4">
         <v>31798</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C128" s="5">
         <v>43</v>
@@ -2268,12 +2270,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="27.6">
+    <row r="129" spans="1:4" ht="28.5">
       <c r="A129" s="4">
         <v>31796</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C129" s="5">
         <v>44</v>
@@ -2287,7 +2289,7 @@
         <v>31747</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" s="5">
         <v>39</v>
@@ -2296,12 +2298,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="27.6">
+    <row r="131" spans="1:4" ht="28.5">
       <c r="A131" s="4">
         <v>31746</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131" s="5">
         <v>49</v>
@@ -2310,12 +2312,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="27.6">
+    <row r="132" spans="1:4" ht="28.5">
       <c r="A132" s="4">
         <v>31664</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C132" s="5">
         <v>40</v>
@@ -2324,12 +2326,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="27.6">
+    <row r="133" spans="1:4" ht="28.5">
       <c r="A133" s="4">
         <v>31431</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C133" s="5">
         <v>42</v>
@@ -2338,12 +2340,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="27.6">
+    <row r="134" spans="1:4" ht="28.5">
       <c r="A134" s="4">
         <v>31357</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C134" s="5">
         <v>49</v>
@@ -2352,12 +2354,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="27.6">
+    <row r="135" spans="1:4" ht="28.5">
       <c r="A135" s="4">
         <v>31257</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C135" s="5">
         <v>38</v>
@@ -2366,12 +2368,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="27.6">
+    <row r="136" spans="1:4" ht="28.5">
       <c r="A136" s="4">
         <v>31127</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C136" s="5">
         <v>37</v>
@@ -2380,12 +2382,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="27.6">
+    <row r="137" spans="1:4" ht="28.5">
       <c r="A137" s="4">
         <v>31105</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C137" s="5">
         <v>46</v>
@@ -2394,12 +2396,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="27.6">
+    <row r="138" spans="1:4" ht="28.5">
       <c r="A138" s="4">
         <v>31100</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C138" s="5">
         <v>43</v>
@@ -2408,12 +2410,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="27.6">
+    <row r="139" spans="1:4" ht="28.5">
       <c r="A139" s="4">
         <v>31000</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C139" s="5">
         <v>46</v>
@@ -2427,7 +2429,7 @@
         <v>30970</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C140" s="5">
         <v>44</v>
@@ -2441,7 +2443,7 @@
         <v>30286</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C141" s="5">
         <v>33</v>
@@ -2450,12 +2452,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="27.6">
+    <row r="142" spans="1:4" ht="28.5">
       <c r="A142" s="4">
         <v>29532</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C142" s="5">
         <v>39</v>
@@ -2469,7 +2471,7 @@
         <v>29509</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" s="5">
         <v>25</v>
@@ -2478,12 +2480,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="27.6">
+    <row r="144" spans="1:4" ht="28.5">
       <c r="A144" s="4">
         <v>29292</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C144" s="5">
         <v>26</v>
@@ -2492,12 +2494,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="27.6">
+    <row r="145" spans="1:4" ht="28.5">
       <c r="A145" s="4">
         <v>29162</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C145" s="5">
         <v>30</v>
@@ -2511,7 +2513,7 @@
         <v>28825</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C146" s="5">
         <v>29</v>
@@ -2520,12 +2522,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="27.6">
+    <row r="147" spans="1:4" ht="28.5">
       <c r="A147" s="4">
         <v>28421</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C147" s="5">
         <v>33</v>
@@ -2534,12 +2536,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="27.6">
+    <row r="148" spans="1:4" ht="28.5">
       <c r="A148" s="4">
         <v>28240</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C148" s="5">
         <v>35</v>
@@ -2553,7 +2555,7 @@
         <v>28048</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" s="5">
         <v>33</v>
@@ -2562,12 +2564,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="27.6">
+    <row r="150" spans="1:4" ht="28.5">
       <c r="A150" s="4">
         <v>28008</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C150" s="5">
         <v>40</v>
@@ -2576,12 +2578,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="27.6">
+    <row r="151" spans="1:4" ht="28.5">
       <c r="A151" s="4">
         <v>27926</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C151" s="5">
         <v>33</v>
@@ -2595,7 +2597,7 @@
         <v>27820</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C152" s="5">
         <v>33</v>
@@ -2604,12 +2606,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="27.6">
+    <row r="153" spans="1:4" ht="28.5">
       <c r="A153" s="4">
         <v>27798</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C153" s="5">
         <v>36</v>
@@ -2623,7 +2625,7 @@
         <v>27364</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154" s="5">
         <v>36</v>
@@ -2637,7 +2639,7 @@
         <v>26587</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" s="5">
         <v>53</v>
@@ -2651,7 +2653,7 @@
         <v>25903</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C156" s="5">
         <v>54</v>
@@ -2665,7 +2667,7 @@
         <v>25126</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C157" s="5">
         <v>62</v>
@@ -2679,7 +2681,7 @@
         <v>24442</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C158" s="5">
         <v>65</v>
@@ -2693,7 +2695,7 @@
         <v>23665</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C159" s="5">
         <v>77</v>
@@ -2707,7 +2709,7 @@
         <v>21520</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C160" s="7">
         <v>73</v>
